--- a/Exo/Data/sample.xlsx
+++ b/Exo/Data/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/R/Exo/Data_SEM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Travail/Enseignements/R/Exo/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65EB48F-9D6F-2B48-AB30-595B98FAD06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9DF35-ABF2-5A4E-B9A9-03D8ACE0126D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>ML15</t>
   </si>
@@ -54,6 +54,39 @@
     <t>ML29</t>
   </si>
   <si>
+    <t>ML18</t>
+  </si>
+  <si>
+    <t>ML30</t>
+  </si>
+  <si>
+    <t>ML31</t>
+  </si>
+  <si>
+    <t>ML19</t>
+  </si>
+  <si>
+    <t>5 old</t>
+  </si>
+  <si>
+    <t>10 old</t>
+  </si>
+  <si>
+    <t>5 new</t>
+  </si>
+  <si>
+    <t>ML20</t>
+  </si>
+  <si>
+    <t>ML21</t>
+  </si>
+  <si>
+    <t>ML22</t>
+  </si>
+  <si>
+    <t>ML23</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -64,15 +97,6 @@
   </si>
   <si>
     <t>Time (minutes)</t>
-  </si>
-  <si>
-    <t>5 old</t>
-  </si>
-  <si>
-    <t>10 old</t>
-  </si>
-  <si>
-    <t>5 new</t>
   </si>
 </sst>
 </file>
@@ -396,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -411,16 +435,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,13 +491,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -481,71 +505,183 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>850</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>750</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>750</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>750</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>750</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>750</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>750</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
+      <c r="B16">
+        <v>750</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>750</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>750</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
         <v>20</v>
       </c>
     </row>
